--- a/Phân tích/UseCases/6. Quản lí kho.xlsx
+++ b/Phân tích/UseCases/6. Quản lí kho.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Homework\CN Phan Mem\Homework\CNPM\Phân tích\UseCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7940DE0B-B1EC-499A-BCA5-F66194241FB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45CA742F-DBD6-49F7-A37B-537F94CE325D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{70C1F1DC-1DC4-47AB-BCD1-D42F388C200A}"/>
   </bookViews>
@@ -84,19 +84,6 @@
     <t>2. Hệ thống hiển thị trang chủ và các chức năng để actor chọn.</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">A2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Helvetica"/>
-      </rPr>
-      <t>Actor có thể chọn xem bảng đánh giá nhân viên</t>
-    </r>
-  </si>
-  <si>
     <t>Actor có đủ quyền hạn.</t>
   </si>
   <si>
@@ -178,9 +165,6 @@
     </r>
   </si>
   <si>
-    <t>UC5</t>
-  </si>
-  <si>
     <t>Quản lí kho</t>
   </si>
   <si>
@@ -225,9 +209,6 @@
     <t>5. Hệ thống cập nhật thông tin sản phẩm vào cơ sở dữ liệu, hiện thông báo "Cập nhật thành công".</t>
   </si>
   <si>
-    <t>6. Hệ thống lưu thông tin sản phẩm vào cơ sở dữ liệu, hiện thông báo "Thêm nhân viên thành công".</t>
-  </si>
-  <si>
     <t>Actor muốn thêm hàng hóa, xem thông tin hàng hóa, cập nhật chi tiết hàng hóa</t>
   </si>
   <si>
@@ -264,6 +245,15 @@
   </si>
   <si>
     <t>1. Actor đăng nhập vào hệ thống</t>
+  </si>
+  <si>
+    <t>UC6</t>
+  </si>
+  <si>
+    <t>A2.</t>
+  </si>
+  <si>
+    <t>6. Hệ thống lưu thông tin sản phẩm vào cơ sở dữ liệu, hiện thông báo "Thêm sản phẩm thành công".</t>
   </si>
 </sst>
 </file>
@@ -462,6 +452,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>797444</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>16263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D93CE1-63E8-48D8-99C6-3DD835DA28F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="15994380"/>
+          <a:ext cx="6009524" cy="7057143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>477470</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>5554</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52C22AED-FF8C-45F9-B214-E503C484FB07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8625840" y="251460"/>
+          <a:ext cx="5476190" cy="1285714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -764,7 +847,7 @@
   <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -780,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="C1" s="13"/>
     </row>
@@ -789,7 +872,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="13"/>
     </row>
@@ -798,7 +881,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="13"/>
     </row>
@@ -816,7 +899,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C5" s="13"/>
     </row>
@@ -834,7 +917,7 @@
     <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C7" s="7"/>
     </row>
@@ -848,7 +931,7 @@
     <row r="9" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9" s="7"/>
     </row>
@@ -856,13 +939,13 @@
       <c r="A10" s="9"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11" s="7"/>
     </row>
@@ -870,13 +953,13 @@
       <c r="A12" s="9"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
       <c r="B13" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="7"/>
     </row>
@@ -906,7 +989,7 @@
     <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9"/>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2"/>
     </row>
@@ -914,20 +997,20 @@
       <c r="A18" s="9"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
       <c r="B19" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C19" s="6"/>
     </row>
     <row r="20" spans="1:3" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9"/>
       <c r="B20" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C20" s="6"/>
     </row>
@@ -935,14 +1018,14 @@
       <c r="A21" s="9"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="9"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -950,26 +1033,26 @@
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
     </row>
-    <row r="24" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9"/>
       <c r="B24" s="17" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="C24" s="18"/>
     </row>
-    <row r="25" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9"/>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="B26" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="2"/>
     </row>
@@ -977,34 +1060,34 @@
       <c r="A27" s="9"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="B29" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9"/>
       <c r="B30" s="2"/>
       <c r="C30" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="9"/>
       <c r="B31" s="3"/>
       <c r="C31" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -1021,17 +1104,17 @@
     </row>
     <row r="34" spans="1:3" ht="22.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9"/>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="9"/>
       <c r="B35" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C35" s="2"/>
     </row>
@@ -1039,7 +1122,7 @@
       <c r="A36" s="9"/>
       <c r="B36" s="6"/>
       <c r="C36" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.3">
@@ -1052,14 +1135,14 @@
         <v>12</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C38" s="18"/>
     </row>
     <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="9"/>
       <c r="B39" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C39" s="18"/>
     </row>
@@ -1082,7 +1165,7 @@
         <v>15</v>
       </c>
       <c r="B42" s="16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C42" s="15"/>
     </row>
@@ -1091,7 +1174,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C43" s="15"/>
     </row>
@@ -1100,22 +1183,22 @@
         <v>17</v>
       </c>
       <c r="B44" s="16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C44" s="15"/>
     </row>
     <row r="45" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C45" s="15"/>
     </row>
     <row r="46" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" s="16" t="s">
         <v>13</v>
@@ -1124,16 +1207,16 @@
     </row>
     <row r="47" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C47" s="15"/>
     </row>
     <row r="48" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B48" s="14">
         <v>44158</v>
@@ -1171,5 +1254,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>